--- a/biology/Botanique/Antimima/Antimima.xlsx
+++ b/biology/Botanique/Antimima/Antimima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antimima N.E.Br. est un genre de plante dicotylédone de la famille des Aizoaceae, originaire d'Afrique australe.
-Le terme Antimima signifie « imitant », l'objet de cette imitation serait Argyroderma[1] (à vérifier dans le protologue). 
+Le terme Antimima signifie « imitant », l'objet de cette imitation serait Argyroderma (à vérifier dans le protologue). 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antimima N.E.Br., in Gard. Chron., ser. 3, 87: 211 (1930)
 Type : Antimima dualis (N.E.Br.) N.E.Br. (Mesembryanthemum duale N.E.Br.)
@@ -544,7 +558,9 @@
           <t>Caractères généraux [1],[2],[3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres du genre Antimima sont des plantes vivaces en touffe compacte formant des coussins, parfois rampantes.
 Phyllotaxie : opposée-décussée ; entrenœuds généralement assez courts.
@@ -583,10 +599,12 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Typologie : chamaephyte ; xérophyte.
-Habitat : régions côtières à pluies d'hiver (100-500 mm/an)[1],[2].
+Habitat : régions côtières à pluies d'hiver (100-500 mm/an),.
 Altitude : ?</t>
         </is>
       </c>
@@ -615,14 +633,16 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Afrique du Sud
-Northern Cape : partie occidentale et ponctuellement à l'est[1]
-Eastern Cape : extrême ouest[1]
-Free State : ponctuellement à l'ouest[1]
+Northern Cape : partie occidentale et ponctuellement à l'est
+Eastern Cape : extrême ouest
+Free State : ponctuellement à l'ouest
  Namibie
-Alentours d'Aus et vers le sud[1]</t>
+Alentours d'Aus et vers le sud</t>
         </is>
       </c>
     </row>
@@ -650,9 +670,11 @@
           <t>Mise en culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des membres du genre Antimima sont des plantes conciliantes mais sont surtout à croissance hivernale[3] et les espèces à dimorphisme foliaire nécessitent une période de sècheresse estivale marquée[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des membres du genre Antimima sont des plantes conciliantes mais sont surtout à croissance hivernale et les espèces à dimorphisme foliaire nécessitent une période de sècheresse estivale marquée.
 Multiplication par boutures ou semis.
 </t>
         </is>
@@ -682,7 +704,9 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Antimima subgen. Antimima
 Antimima subgen. Caespitosa Dehn
@@ -716,7 +740,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Antimima addita (L.Bolus) H.E.K.Hartmann
